--- a/genshin/488193479246923943_2021-02-05_14-00-02.xlsx
+++ b/genshin/488193479246923943_2021-02-05_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4075962671</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-07 16:49:00</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44234.70069444444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4069888414</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-06 18:20:37</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44233.76431712963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4067141902</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-06 10:24:12</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44233.43347222222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>4066279974</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-06 03:51:32</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44233.16078703704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -819,10 +827,8 @@
           <t>4065516903</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-06 00:16:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44233.01168981481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-05 23:49:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44232.99304398148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-05 23:49:45</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44232.99288194445</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1048,10 +1050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-05 21:31:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44232.89682870371</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1127,10 +1127,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-05 21:10:13</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44232.88209490741</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1194,10 +1192,8 @@
           <t>4063305082</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-05 19:08:43</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44232.79771990741</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1273,10 +1269,8 @@
           <t>4061630765</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:39:16</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44232.77726851852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1352,10 +1346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:38:43</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44232.77688657407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1431,10 +1423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:29:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44232.77075231481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1498,10 +1488,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:07:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44232.7553587963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>4062837819</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:02:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44232.7518287037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1643,10 +1629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:45:07</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44232.73966435185</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1714,10 +1698,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:24:46</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44232.72553240741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1792,10 +1774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:14:14</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44232.71821759259</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1863,10 +1843,8 @@
           <t>4062492400</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:09:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44232.71516203704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1930,10 +1908,8 @@
           <t>4062068610</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:50:36</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44232.70180555555</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2009,10 +1985,8 @@
           <t>4061834683</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:49:00</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44232.70069444444</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2086,10 +2060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:41:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44232.69572916667</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2153,10 +2125,8 @@
           <t>4062126320</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:32:13</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44232.68903935186</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>4062042247</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:26:02</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44232.68474537037</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -2291,10 +2259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:21:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44232.68164351852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2361,10 +2327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:19:02</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44232.67988425926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2439,10 +2403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:17:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44232.67905092592</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2517,10 +2479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:15:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44232.67728009259</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2584,10 +2544,8 @@
           <t>4062139305</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:12:31</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44232.6753587963</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2651,10 +2609,8 @@
           <t>4062163292</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:11:42</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44232.67479166666</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2725,10 +2681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:10:29</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44232.67394675926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2792,10 +2746,8 @@
           <t>4062139305</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:08:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44232.67224537037</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2867,10 +2819,8 @@
           <t>4062135017</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:05:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44232.67072916667</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2938,10 +2888,8 @@
           <t>4062126320</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:05:00</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44232.67013888889</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3006,10 +2954,8 @@
           <t>4062122381</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:04:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44232.66975694444</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3077,10 +3023,8 @@
           <t>4062093549</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:00:16</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44232.66685185185</v>
       </c>
       <c r="I37" t="n">
         <v>6</v>
@@ -3148,10 +3092,8 @@
           <t>4062068610</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:55:46</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44232.66372685185</v>
       </c>
       <c r="I38" t="n">
         <v>11</v>
@@ -3222,10 +3164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:55:12</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44232.66333333333</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3289,10 +3229,8 @@
           <t>4061630765</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:54:58</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44232.6631712963</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3364,10 +3302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:54:06</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44232.66256944444</v>
       </c>
       <c r="I41" t="n">
         <v>18</v>
@@ -3439,10 +3375,8 @@
           <t>4062042247</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:49:49</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44232.65959490741</v>
       </c>
       <c r="I42" t="n">
         <v>16</v>
@@ -3513,10 +3447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:45:56</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44232.65689814815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3584,10 +3516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:41:33</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44232.65385416667</v>
       </c>
       <c r="I44" t="n">
         <v>38</v>
@@ -3655,10 +3585,8 @@
           <t>4061978235</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:38:24</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44232.65166666666</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3734,10 +3662,8 @@
           <t>4061962124</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:34:49</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44232.64917824074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3805,10 +3731,8 @@
           <t>4061952654</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:33:35</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44232.64832175926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3887,10 +3811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:26:26</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44232.64335648148</v>
       </c>
       <c r="I48" t="n">
         <v>175</v>
@@ -3954,10 +3876,8 @@
           <t>4061859275</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:15:37</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44232.63584490741</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4029,10 +3949,8 @@
           <t>4061834683</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:12:22</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44232.63358796296</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
@@ -4100,10 +4018,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:09:12</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44232.63138888889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4175,10 +4091,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:09:07</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44232.63133101852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4246,10 +4160,8 @@
           <t>4061741606</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:08:52</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44232.63115740741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4328,10 +4240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:05:33</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44232.62885416667</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4403,10 +4313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:05:08</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44232.62856481481</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4482,10 +4390,8 @@
           <t>4061775637</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:58:36</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44232.62402777778</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4561,10 +4467,8 @@
           <t>4061770229</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:58:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44232.62365740741</v>
       </c>
       <c r="I57" t="n">
         <v>25</v>
@@ -4636,10 +4540,8 @@
           <t>4061741606</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:53:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44232.62013888889</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4707,10 +4609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:52:36</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44232.61986111111</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4785,10 +4685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:49:24</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44232.61763888889</v>
       </c>
       <c r="I60" t="n">
         <v>44</v>
@@ -4863,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:48:33</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44232.61704861111</v>
       </c>
       <c r="I61" t="n">
         <v>5</v>
@@ -4938,10 +4834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:47:44</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44232.61648148148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5012,10 +4906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:43:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44232.61320601852</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5082,10 +4974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:40:25</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44232.61140046296</v>
       </c>
       <c r="I64" t="n">
         <v>10</v>
@@ -5153,10 +5043,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:39:17</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44232.61061342592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5232,10 +5120,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:37:13</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44232.60917824074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5307,10 +5193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:32:41</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44232.60603009259</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5386,10 +5270,8 @@
           <t>4061634062</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:32:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44232.60572916667</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5473,10 +5355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:31:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44232.60542824074</v>
       </c>
       <c r="I69" t="n">
         <v>157</v>
@@ -5544,10 +5424,8 @@
           <t>4061630765</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:30:27</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44232.60447916666</v>
       </c>
       <c r="I70" t="n">
         <v>57</v>
@@ -5623,10 +5501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:29:42</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44232.60395833333</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5690,10 +5566,8 @@
           <t>4061610175</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:27:20</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44232.60231481482</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5757,10 +5631,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:26:46</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44232.60192129629</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5836,10 +5708,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:25:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44232.60085648148</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5908,10 +5778,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:24:12</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44232.60013888889</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5975,10 +5843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:23:21</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44232.59954861111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6050,10 +5916,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:21:24</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44232.59819444444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6121,10 +5985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:21:02</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44232.59793981481</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6202,10 +6064,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:20:52</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44232.59782407407</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6273,10 +6133,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:19:19</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44232.59674768519</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6345,10 +6203,8 @@
           <t>4061558530</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:18:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44232.59611111111</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6412,10 +6268,8 @@
           <t>4061556761</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:17:27</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44232.59545138889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6491,10 +6345,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:17:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44232.59516203704</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6562,10 +6414,8 @@
           <t>4061555858</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:16:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44232.59510416666</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6649,10 +6499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:16:01</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44232.59445601852</v>
       </c>
       <c r="I85" t="n">
         <v>54</v>
@@ -6727,10 +6575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44232.59362268518</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6814,10 +6660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:15</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44232.59322916667</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6894,10 +6738,8 @@
           <t>4061533008</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:59</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44232.59234953704</v>
       </c>
       <c r="I88" t="n">
         <v>6</v>
@@ -6980,10 +6822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:54</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44232.59229166667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7062,10 +6902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:19</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44232.59188657408</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7141,10 +6979,8 @@
           <t>4061527168</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:14</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44232.59182870371</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7220,10 +7056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:11:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44232.59151620371</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7287,10 +7121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:11:35</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44232.59137731481</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7369,10 +7201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:11:20</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44232.59120370371</v>
       </c>
       <c r="I94" t="n">
         <v>28</v>
@@ -7449,10 +7279,8 @@
           <t>4061514391</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:46</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44232.59081018518</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7520,10 +7348,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:43</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44232.59077546297</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7587,10 +7413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:39</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44232.59072916667</v>
       </c>
       <c r="I97" t="n">
         <v>66</v>
@@ -7662,10 +7486,8 @@
           <t>4061518490</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:22</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44232.5905324074</v>
       </c>
       <c r="I98" t="n">
         <v>19</v>
@@ -7736,10 +7558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:02</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44232.59030092593</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7810,10 +7630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:09:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44232.58960648148</v>
       </c>
       <c r="I100" t="n">
         <v>24</v>
@@ -7885,10 +7703,8 @@
           <t>4061510776</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:08:46</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44232.5894212963</v>
       </c>
       <c r="I101" t="n">
         <v>14</v>
@@ -7959,10 +7775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:08:43</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44232.58938657407</v>
       </c>
       <c r="I102" t="n">
         <v>637</v>
@@ -8026,10 +7840,8 @@
           <t>4061498949</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:07:46</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44232.58872685185</v>
       </c>
       <c r="I103" t="n">
         <v>16</v>
@@ -8097,10 +7909,8 @@
           <t>4061498058</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:07:15</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44232.58836805556</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
@@ -8179,10 +7989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:05:25</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44232.58709490741</v>
       </c>
       <c r="I105" t="n">
         <v>405</v>
@@ -8250,10 +8058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:05:16</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44232.58699074074</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8325,10 +8131,8 @@
           <t>4061488605</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:04:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44232.58673611111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8396,10 +8200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:04:23</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44232.58637731482</v>
       </c>
       <c r="I108" t="n">
         <v>9</v>
@@ -8474,10 +8276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:03:42</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44232.58590277778</v>
       </c>
       <c r="I109" t="n">
         <v>303</v>
@@ -8541,10 +8341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:03:39</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44232.58586805555</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8612,10 +8410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:03:38</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44232.58585648148</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8687,10 +8483,8 @@
           <t>4061485358</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:03:08</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44232.58550925926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8766,10 +8560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:02:41</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44232.58519675926</v>
       </c>
       <c r="I113" t="n">
         <v>9</v>
@@ -8841,10 +8633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:01:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44232.58402777778</v>
       </c>
       <c r="I114" t="n">
         <v>4</v>
@@ -8916,10 +8706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44232.58381944444</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8995,10 +8783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:38</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44232.58377314815</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -9071,10 +8857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:36</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44232.58375</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9146,10 +8930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:23</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44232.58359953704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
